--- a/Income/UPS_inc.xlsx
+++ b/Income/UPS_inc.xlsx
@@ -1981,16 +1981,16 @@
         <v>0.1816</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.1791</v>
+        <v>0.3252</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.3161</v>
+        <v>0.4677</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.458</v>
+        <v>0.6141</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.6031</v>
+        <v>0.7609</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.7543</v>
@@ -2108,16 +2108,16 @@
         <v>0.091</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.0972</v>
+        <v>0.0971</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0.0977</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.0999</v>
+        <v>0.0998</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.1053</v>
+        <v>0.1052</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.1045</v>
@@ -2241,7 +2241,7 @@
         <v>0.0727</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.073</v>
+        <v>0.0729</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>0.0763</v>
@@ -2368,10 +2368,10 @@
         <v>0.0567</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.0574</v>
+        <v>0.0573</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.06</v>
+        <v>0.0599</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.0681</v>
@@ -2489,7 +2489,7 @@
         <v>0.0602</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.0872</v>
+        <v>0.0871</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0.0629</v>
@@ -3511,7 +3511,7 @@
         <v>0.1307</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.1322</v>
+        <v>0.1321</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>0.1371</v>
@@ -3632,16 +3632,16 @@
         <v>0.1239</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.1527</v>
+        <v>0.1526</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.1345</v>
+        <v>0.1344</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.1191</v>
+        <v>0.119</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.1167</v>
+        <v>0.1166</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.1224</v>
